--- a/100runs/run099/NotionalETEOutput099.xlsx
+++ b/100runs/run099/NotionalETEOutput099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,10 +52,22 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_24.MISSILE_BRAVER_24</t>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_161.MISSILE_BRAVER_161</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_323.MISSILE_BRAVER_323</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_223.MISSILE_HELLMASKER_223</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G2">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H2">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I2">
-        <v>-2137.729834872316</v>
+        <v>1114860.648633938</v>
       </c>
       <c r="J2">
-        <v>946.9871601644586</v>
+        <v>4843226.849345194</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984370.58094331</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G3">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H3">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I3">
-        <v>-2095.525355718932</v>
+        <v>1114890.262611574</v>
       </c>
       <c r="J3">
-        <v>923.9509454742426</v>
+        <v>4843178.197721049</v>
       </c>
       <c r="K3">
-        <v>441.8467288795294</v>
+        <v>3984674.376955092</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G4">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H4">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I4">
-        <v>-2052.281630093805</v>
+        <v>1114920.605806166</v>
       </c>
       <c r="J4">
-        <v>900.9147307840269</v>
+        <v>4843129.546096904</v>
       </c>
       <c r="K4">
-        <v>861.6609545044302</v>
+        <v>3984963.024305177</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G5">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H5">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I5">
-        <v>-2007.973067508658</v>
+        <v>1114951.696174008</v>
       </c>
       <c r="J5">
-        <v>877.878516093811</v>
+        <v>4843080.89447276</v>
       </c>
       <c r="K5">
-        <v>1259.442676874705</v>
+        <v>3985236.522993564</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G6">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H6">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I6">
-        <v>-1962.573447332982</v>
+        <v>1114983.552113557</v>
       </c>
       <c r="J6">
-        <v>854.8423014035952</v>
+        <v>4843032.242848615</v>
       </c>
       <c r="K6">
-        <v>1635.191895990352</v>
+        <v>3985494.873020251</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G7">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H7">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I7">
-        <v>-1916.055903277363</v>
+        <v>1115016.192476309</v>
       </c>
       <c r="J7">
-        <v>831.8060867133793</v>
+        <v>4842983.591224471</v>
       </c>
       <c r="K7">
-        <v>1988.908611851374</v>
+        <v>3985738.074385241</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G8">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H8">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I8">
-        <v>-1868.392907494731</v>
+        <v>1115049.636577966</v>
       </c>
       <c r="J8">
-        <v>808.7698720231633</v>
+        <v>4842934.939600326</v>
       </c>
       <c r="K8">
-        <v>2320.592824457769</v>
+        <v>3985966.127088532</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G9">
-        <v>-93.28465179727375</v>
+        <v>4841122.055162043</v>
       </c>
       <c r="H9">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I9">
-        <v>-1819.556254290105</v>
+        <v>1115083.904209858</v>
       </c>
       <c r="J9">
-        <v>785.7336573329475</v>
+        <v>4842886.287976182</v>
       </c>
       <c r="K9">
-        <v>2630.244533809536</v>
+        <v>3986179.031130124</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>124.6764742294171</v>
+        <v>1116577.096332629</v>
       </c>
       <c r="G10">
-        <v>-77.88072999534513</v>
+        <v>4841138.567972699</v>
       </c>
       <c r="H10">
-        <v>814.4663206590635</v>
+        <v>3985228.35500903</v>
       </c>
       <c r="I10">
-        <v>-1769.517043429211</v>
+        <v>1115119.01565066</v>
       </c>
       <c r="J10">
-        <v>762.6974426427316</v>
+        <v>4842837.636352037</v>
       </c>
       <c r="K10">
-        <v>2917.863739906676</v>
+        <v>3986376.786510018</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>96.76348831798882</v>
+        <v>1116528.415830224</v>
       </c>
       <c r="G11">
-        <v>-62.47680819341651</v>
+        <v>4841155.080783354</v>
       </c>
       <c r="H11">
-        <v>1003.417026462634</v>
+        <v>3985427.609417137</v>
       </c>
       <c r="I11">
-        <v>-1718.245663036097</v>
+        <v>1115154.99167839</v>
       </c>
       <c r="J11">
-        <v>739.6612279525158</v>
+        <v>4842788.984727893</v>
       </c>
       <c r="K11">
-        <v>3183.450442749188</v>
+        <v>3986559.393228214</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>80.36600936155423</v>
+        <v>1116499.818477139</v>
       </c>
       <c r="G12">
-        <v>-47.0728863914879</v>
+        <v>4841171.59359401</v>
       </c>
       <c r="H12">
-        <v>1115.965730145195</v>
+        <v>3985546.295532863</v>
       </c>
       <c r="I12">
-        <v>-1665.711772069609</v>
+        <v>1115191.853582705</v>
       </c>
       <c r="J12">
-        <v>716.6250132622999</v>
+        <v>4842740.333103748</v>
       </c>
       <c r="K12">
-        <v>3427.004642337075</v>
+        <v>3986726.851284711</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>70.01471766433144</v>
+        <v>1116481.765729863</v>
       </c>
       <c r="G13">
-        <v>-31.66896458955927</v>
+        <v>4841188.106404666</v>
       </c>
       <c r="H13">
-        <v>1196.396681791045</v>
+        <v>3985631.112478084</v>
       </c>
       <c r="I13">
-        <v>-1611.884282368363</v>
+        <v>1115229.623177502</v>
       </c>
       <c r="J13">
-        <v>693.588798572084</v>
+        <v>4842691.681479603</v>
       </c>
       <c r="K13">
-        <v>3648.526338670335</v>
+        <v>3986879.16067951</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>62.79576885304807</v>
+        <v>1116469.175817194</v>
       </c>
       <c r="G14">
-        <v>-16.26504278763065</v>
+        <v>4841204.61921532</v>
       </c>
       <c r="H14">
-        <v>1259.028220746754</v>
+        <v>3985697.159387887</v>
       </c>
       <c r="I14">
-        <v>-1556.731340253607</v>
+        <v>1115268.322813823</v>
       </c>
       <c r="J14">
-        <v>670.5525838818681</v>
+        <v>4842643.029855459</v>
       </c>
       <c r="K14">
-        <v>3848.015531748968</v>
+        <v>3987016.32141261</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>57.41021685697961</v>
+        <v>1116459.783365318</v>
       </c>
       <c r="G15">
-        <v>-0.8611209857020383</v>
+        <v>4841221.132025976</v>
       </c>
       <c r="H15">
-        <v>1310.32830929647</v>
+        <v>3985751.256930082</v>
       </c>
       <c r="I15">
-        <v>-1500.220307679052</v>
+        <v>1115307.975393086</v>
       </c>
       <c r="J15">
-        <v>647.5163691916523</v>
+        <v>4842594.378231315</v>
       </c>
       <c r="K15">
-        <v>4025.472221572973</v>
+        <v>3987138.333484012</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>53.19946726609385</v>
+        <v>1116452.439779568</v>
       </c>
       <c r="G16">
-        <v>14.54280081622658</v>
+        <v>4841237.644836631</v>
       </c>
       <c r="H16">
-        <v>1353.775739573112</v>
+        <v>3985797.073599391</v>
       </c>
       <c r="I16">
-        <v>-1442.317742916545</v>
+        <v>1115348.604380633</v>
       </c>
       <c r="J16">
-        <v>624.4801545014363</v>
+        <v>4842545.72660717</v>
       </c>
       <c r="K16">
-        <v>4180.896408142353</v>
+        <v>3987245.196893716</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>49.79266425233631</v>
+        <v>1116446.498283992</v>
       </c>
       <c r="G17">
-        <v>29.94672261815521</v>
+        <v>4841254.157647287</v>
       </c>
       <c r="H17">
-        <v>1391.458472381783</v>
+        <v>3985836.811215558</v>
       </c>
       <c r="I17">
-        <v>-1382.989380766144</v>
+        <v>1115390.23381962</v>
       </c>
       <c r="J17">
-        <v>601.4439398112206</v>
+        <v>4842497.074983025</v>
       </c>
       <c r="K17">
-        <v>4314.288091457104</v>
+        <v>3987336.911641721</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>46.96380383899903</v>
+        <v>1116441.56472559</v>
       </c>
       <c r="G18">
-        <v>45.35064442008382</v>
+        <v>4841270.670457942</v>
       </c>
       <c r="H18">
-        <v>1424.72859660606</v>
+        <v>3985871.895598448</v>
       </c>
       <c r="I18">
-        <v>-1322.200112278881</v>
+        <v>1115432.888345245</v>
       </c>
       <c r="J18">
-        <v>578.4077251210047</v>
+        <v>4842448.423358881</v>
       </c>
       <c r="K18">
-        <v>4425.64727151723</v>
+        <v>3987413.477728027</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>44.56655748399562</v>
+        <v>1116437.383906049</v>
       </c>
       <c r="G19">
-        <v>60.75456622201246</v>
+        <v>4841287.183268596</v>
       </c>
       <c r="H19">
-        <v>1454.512052696581</v>
+        <v>3985903.303181127</v>
       </c>
       <c r="I19">
-        <v>-1259.913963980222</v>
+        <v>1115476.593199321</v>
       </c>
       <c r="J19">
-        <v>555.3715104307887</v>
+        <v>4842399.771734737</v>
       </c>
       <c r="K19">
-        <v>4514.973948322729</v>
+        <v>3987474.895152635</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>42.50156362539267</v>
+        <v>1116433.782537896</v>
       </c>
       <c r="G20">
-        <v>76.15848802394106</v>
+        <v>4841303.696079252</v>
       </c>
       <c r="H20">
-        <v>1481.470810742009</v>
+        <v>3985931.732031683</v>
       </c>
       <c r="I20">
-        <v>-1196.094076581913</v>
+        <v>1115521.374245221</v>
       </c>
       <c r="J20">
-        <v>532.335295740573</v>
+        <v>4842351.120110592</v>
       </c>
       <c r="K20">
-        <v>4582.2681218736</v>
+        <v>3987521.163915545</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>40.69871728501812</v>
+        <v>1116430.63835741</v>
       </c>
       <c r="G21">
-        <v>91.56240982586968</v>
+        <v>4841320.208889908</v>
       </c>
       <c r="H21">
-        <v>1506.094558007577</v>
+        <v>3985957.698540598</v>
       </c>
       <c r="I21">
-        <v>-1130.702683169641</v>
+        <v>1115567.257983179</v>
       </c>
       <c r="J21">
-        <v>509.299081050357</v>
+        <v>4842302.468486447</v>
       </c>
       <c r="K21">
-        <v>4627.529792169844</v>
+        <v>3987552.284016757</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>39.1069743617835</v>
+        <v>1116427.862343212</v>
       </c>
       <c r="G22">
-        <v>106.9663316277983</v>
+        <v>4841336.721700563</v>
       </c>
       <c r="H22">
-        <v>1528.75573940767</v>
+        <v>3985981.595462643</v>
       </c>
       <c r="I22">
-        <v>-1063.70108685357</v>
+        <v>1115614.271565971</v>
       </c>
       <c r="J22">
-        <v>486.2628663601412</v>
+        <v>4842253.816862303</v>
       </c>
       <c r="K22">
-        <v>4650.758959211462</v>
+        <v>3987568.25545627</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>37.68817920381029</v>
+        <v>1116425.387951497</v>
       </c>
       <c r="G23">
-        <v>122.3702534297269</v>
+        <v>4841353.234511219</v>
       </c>
       <c r="H23">
-        <v>1549.744234285241</v>
+        <v>3986003.728484618</v>
       </c>
       <c r="I23">
-        <v>-995.0496378685546</v>
+        <v>1115662.442814989</v>
       </c>
       <c r="J23">
-        <v>463.2266516699253</v>
+        <v>4842205.165238159</v>
       </c>
       <c r="K23">
-        <v>4651.955622998452</v>
+        <v>3987569.078234084</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>36.41316768547183</v>
+        <v>1116423.164319762</v>
       </c>
       <c r="G24">
-        <v>137.7741752316556</v>
+        <v>4841369.747321874</v>
       </c>
       <c r="H24">
-        <v>1569.290090789245</v>
+        <v>3986024.340199468</v>
       </c>
       <c r="I24">
-        <v>-924.7077101104583</v>
+        <v>1115711.800236696</v>
       </c>
       <c r="J24">
-        <v>440.1904369797094</v>
+        <v>4842156.513614013</v>
       </c>
       <c r="K24">
-        <v>4631.119783530816</v>
+        <v>3987554.7523502</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>35.25921795624705</v>
+        <v>1116421.151820893</v>
       </c>
       <c r="G25">
-        <v>153.1780970335842</v>
+        <v>4841386.260132529</v>
       </c>
       <c r="H25">
-        <v>1587.578936826347</v>
+        <v>3986043.626357604</v>
       </c>
       <c r="I25">
-        <v>-852.633677094705</v>
+        <v>1115762.373039505</v>
       </c>
       <c r="J25">
-        <v>417.1542222894936</v>
+        <v>4842107.861989869</v>
       </c>
       <c r="K25">
-        <v>4588.251440808553</v>
+        <v>3987525.277804618</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>34.20833126057226</v>
+        <v>1116419.319064897</v>
       </c>
       <c r="G26">
-        <v>168.5820188355128</v>
+        <v>4841402.772943185</v>
       </c>
       <c r="H26">
-        <v>1604.762727958198</v>
+        <v>3986061.747200903</v>
       </c>
       <c r="I26">
-        <v>-778.7848873228338</v>
+        <v>1115814.191151057</v>
       </c>
       <c r="J26">
-        <v>394.1180075992777</v>
+        <v>4842059.210365725</v>
       </c>
       <c r="K26">
-        <v>4523.350594831662</v>
+        <v>3987480.654597337</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>33.24604157093643</v>
+        <v>1116417.640822888</v>
       </c>
       <c r="G27">
-        <v>183.9859406374414</v>
+        <v>4841419.28575384</v>
       </c>
       <c r="H27">
-        <v>1620.967429197205</v>
+        <v>3986078.835563395</v>
       </c>
       <c r="I27">
-        <v>-703.1176390424712</v>
+        <v>1115867.285235934</v>
       </c>
       <c r="J27">
-        <v>371.0817929090618</v>
+        <v>4842010.55874158</v>
       </c>
       <c r="K27">
-        <v>4436.417245600145</v>
+        <v>3987420.882728358</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>32.36057214657221</v>
+        <v>1116416.096556123</v>
       </c>
       <c r="G28">
-        <v>199.38986243937</v>
+        <v>4841435.798564496</v>
       </c>
       <c r="H28">
-        <v>1636.298623903101</v>
+        <v>3986095.002786024</v>
       </c>
       <c r="I28">
-        <v>-625.587154385797</v>
+        <v>1115921.686713806</v>
       </c>
       <c r="J28">
-        <v>348.0455782188459</v>
+        <v>4841961.907117435</v>
       </c>
       <c r="K28">
-        <v>4327.451393114002</v>
+        <v>3987345.96219768</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>31.54222563006392</v>
+        <v>1116414.669352323</v>
       </c>
       <c r="G29">
-        <v>214.7937842412987</v>
+        <v>4841452.31137515</v>
       </c>
       <c r="H29">
-        <v>1650.845686782793</v>
+        <v>3986110.343117205</v>
       </c>
       <c r="I29">
-        <v>-546.1475528711893</v>
+        <v>1115977.427778022</v>
       </c>
       <c r="J29">
-        <v>325.00936352863</v>
+        <v>4841913.255493291</v>
       </c>
       <c r="K29">
-        <v>4196.453037373231</v>
+        <v>3987255.893005305</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>30.78293497690659</v>
+        <v>1116413.345142488</v>
       </c>
       <c r="G30">
-        <v>230.1977060432272</v>
+        <v>4841468.824185805</v>
       </c>
       <c r="H30">
-        <v>1664.684940703984</v>
+        <v>3986124.937041779</v>
       </c>
       <c r="I30">
-        <v>-464.751824252378</v>
+        <v>1116034.541414663</v>
       </c>
       <c r="J30">
-        <v>301.9731488384141</v>
+        <v>4841864.603869147</v>
       </c>
       <c r="K30">
-        <v>4043.422178377833</v>
+        <v>3987150.67515123</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>30.07592741924119</v>
+        <v>1116412.112114849</v>
       </c>
       <c r="G31">
-        <v>245.6016278451559</v>
+        <v>4841485.336996461</v>
       </c>
       <c r="H31">
-        <v>1677.882080529958</v>
+        <v>3986138.853837027</v>
       </c>
       <c r="I31">
-        <v>-381.3518006990258</v>
+        <v>1116093.061422063</v>
       </c>
       <c r="J31">
-        <v>278.9369341481984</v>
+        <v>4841815.952245002</v>
       </c>
       <c r="K31">
-        <v>3868.358816127809</v>
+        <v>3987030.308635457</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>29.41546932980123</v>
+        <v>1116410.960269908</v>
       </c>
       <c r="G32">
-        <v>261.0055496470845</v>
+        <v>4841501.849807117</v>
       </c>
       <c r="H32">
-        <v>1690.49405917228</v>
+        <v>3986152.153561571</v>
       </c>
       <c r="I32">
-        <v>-295.8981282922873</v>
+        <v>1116153.022430808</v>
       </c>
       <c r="J32">
-        <v>255.9007194579824</v>
+        <v>4841767.300620857</v>
       </c>
       <c r="K32">
-        <v>3671.262950623157</v>
+        <v>3986894.793457985</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>28.79666994546211</v>
+        <v>1116409.881078129</v>
       </c>
       <c r="G33">
-        <v>276.4094714490131</v>
+        <v>4841518.362617772</v>
       </c>
       <c r="H33">
-        <v>1702.570572981046</v>
+        <v>3986164.888621759</v>
       </c>
       <c r="I33">
-        <v>-208.3402378184693</v>
+        <v>1116214.45992423</v>
       </c>
       <c r="J33">
-        <v>232.8645047677666</v>
+        <v>4841718.648996713</v>
       </c>
       <c r="K33">
-        <v>3452.13458186388</v>
+        <v>3986744.129618816</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>28.21532855629753</v>
+        <v>1116408.867213436</v>
       </c>
       <c r="G34">
-        <v>291.8133932509418</v>
+        <v>4841534.875428427</v>
       </c>
       <c r="H34">
-        <v>1714.155244460915</v>
+        <v>3986177.105018882</v>
       </c>
       <c r="I34">
-        <v>-118.6263148435157</v>
+        <v>1116277.410259406</v>
       </c>
       <c r="J34">
-        <v>209.8282900775507</v>
+        <v>4841669.997372569</v>
       </c>
       <c r="K34">
-        <v>3210.973709849974</v>
+        <v>3986578.317117947</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>27.66781422986056</v>
+        <v>1116407.91234345</v>
       </c>
       <c r="G35">
-        <v>307.2173150528704</v>
+        <v>4841551.388239082</v>
       </c>
       <c r="H35">
-        <v>1725.286573434112</v>
+        <v>3986188.843352203</v>
       </c>
       <c r="I35">
-        <v>-26.70326905059994</v>
+        <v>1116341.910688673</v>
       </c>
       <c r="J35">
-        <v>186.7920753873348</v>
+        <v>4841621.345748423</v>
       </c>
       <c r="K35">
-        <v>2947.780334581441</v>
+        <v>3986397.35595538</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>27.15097019248138</v>
+        <v>1116407.010962727</v>
       </c>
       <c r="G36">
-        <v>322.621236854799</v>
+        <v>4841567.901049738</v>
       </c>
       <c r="H36">
-        <v>1735.998709007056</v>
+        <v>3986200.139633019</v>
       </c>
       <c r="I36">
-        <v>67.48329717731514</v>
+        <v>1116407.999381671</v>
       </c>
       <c r="J36">
-        <v>163.755860697119</v>
+        <v>4841572.694124279</v>
       </c>
       <c r="K36">
-        <v>2662.554456058283</v>
+        <v>3986201.246131116</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>26.66203711063495</v>
+        <v>1116406.158258966</v>
       </c>
       <c r="G37">
-        <v>338.0251586567276</v>
+        <v>4841584.413860394</v>
       </c>
       <c r="H37">
-        <v>1746.322081385958</v>
+        <v>3986211.025950931</v>
       </c>
       <c r="I37">
-        <v>163.9891209485404</v>
+        <v>1116475.715447933</v>
       </c>
       <c r="J37">
-        <v>140.7196460069031</v>
+        <v>4841524.042500135</v>
       </c>
       <c r="K37">
-        <v>2355.296074280497</v>
+        <v>3985989.987645152</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>26.19859101203297</v>
+        <v>1116405.350004737</v>
       </c>
       <c r="G38">
-        <v>353.4290804586562</v>
+        <v>4841600.926671049</v>
       </c>
       <c r="H38">
-        <v>1756.283923007977</v>
+        <v>3986221.531023392</v>
       </c>
       <c r="I38">
-        <v>262.8713118464031</v>
+        <v>1116545.09896003</v>
       </c>
       <c r="J38">
-        <v>117.6834313166873</v>
+        <v>4841475.390875991</v>
       </c>
       <c r="K38">
-        <v>2026.005189248085</v>
+        <v>3985763.58049749</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>25.75849265668147</v>
+        <v>1116404.582469185</v>
       </c>
       <c r="G39">
-        <v>368.8330022605849</v>
+        <v>4841617.439481704</v>
       </c>
       <c r="H39">
-        <v>1765.908701470675</v>
+        <v>3986231.680652247</v>
       </c>
       <c r="I39">
-        <v>364.188385725177</v>
+        <v>1116616.19097728</v>
       </c>
       <c r="J39">
-        <v>94.64721662647138</v>
+        <v>4841426.739251845</v>
       </c>
       <c r="K39">
-        <v>1674.681800961044</v>
+        <v>3985522.02468813</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>25.33984594380994</v>
+        <v>1116403.852345493</v>
       </c>
       <c r="G40">
-        <v>384.2369240625135</v>
+        <v>4841633.952292359</v>
       </c>
       <c r="H40">
-        <v>1775.218481588623</v>
+        <v>3986241.49810553</v>
       </c>
       <c r="I40">
-        <v>468.0002993382179</v>
+        <v>1116689.033570052</v>
       </c>
       <c r="J40">
-        <v>71.61100193625546</v>
+        <v>4841378.087627701</v>
       </c>
       <c r="K40">
-        <v>1301.325909419377</v>
+        <v>3985265.320217072</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>24.94096350924665</v>
+        <v>1116403.156690884</v>
       </c>
       <c r="G41">
-        <v>399.6408458644421</v>
+        <v>4841650.465103014</v>
       </c>
       <c r="H41">
-        <v>1784.233230059585</v>
+        <v>3986251.004438746</v>
       </c>
       <c r="I41">
-        <v>574.3684858187689</v>
+        <v>1116763.669844656</v>
       </c>
       <c r="J41">
-        <v>48.57478724603966</v>
+        <v>4841329.436003556</v>
       </c>
       <c r="K41">
-        <v>905.9375146230846</v>
+        <v>3984993.467084314</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>24.5603380893338</v>
+        <v>1116402.492876675</v>
       </c>
       <c r="G42">
-        <v>415.0447676663707</v>
+        <v>4841666.97791367</v>
       </c>
       <c r="H42">
-        <v>1792.971073322187</v>
+        <v>3986260.21876679</v>
       </c>
       <c r="I42">
-        <v>683.3558910344686</v>
+        <v>1116840.143968859</v>
       </c>
       <c r="J42">
-        <v>25.53857255582374</v>
+        <v>4841280.784379411</v>
       </c>
       <c r="K42">
-        <v>488.5166165721635</v>
+        <v>3984706.465289858</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>24.1966185431257</v>
+        <v>1116401.858546464</v>
       </c>
       <c r="G43">
-        <v>430.4486894682994</v>
+        <v>4841683.490724326</v>
       </c>
       <c r="H43">
-        <v>1801.448516978319</v>
+        <v>3986269.158495334</v>
       </c>
       <c r="I43">
-        <v>795.0270108370298</v>
+        <v>1116918.501198016</v>
       </c>
       <c r="J43">
-        <v>2.502357865607832</v>
+        <v>4841232.132755267</v>
       </c>
       <c r="K43">
-        <v>49.06321526661593</v>
+        <v>3984404.314833704</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>23.84858966325965</v>
+        <v>1116401.251580918</v>
       </c>
       <c r="G44">
-        <v>445.852611270228</v>
+        <v>4841700.00353498</v>
       </c>
       <c r="H44">
-        <v>1809.680633456551</v>
+        <v>3986277.839518722</v>
       </c>
       <c r="I44">
-        <v>909.4479292291817</v>
+        <v>1116998.787901853</v>
       </c>
       <c r="J44">
-        <v>-20.53385682460797</v>
+        <v>4841183.481131122</v>
       </c>
       <c r="K44">
-        <v>-412.4226892935573</v>
+        <v>3984087.015715852</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>23.51515508793248</v>
+        <v>1116400.670067973</v>
       </c>
       <c r="G45">
-        <v>461.2565330721565</v>
+        <v>4841716.516345636</v>
       </c>
       <c r="H45">
-        <v>1817.681223277842</v>
+        <v>3986286.276390034</v>
       </c>
       <c r="I45">
-        <v>1026.686357471426</v>
+        <v>1117081.051591909</v>
       </c>
       <c r="J45">
-        <v>-43.57007151482389</v>
+        <v>4841134.829506978</v>
       </c>
       <c r="K45">
-        <v>-895.9410971083587</v>
+        <v>3983754.567936301</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>23.19532276644911</v>
+        <v>1116400.112277483</v>
       </c>
       <c r="G46">
-        <v>476.6604548740852</v>
+        <v>4841733.029156291</v>
       </c>
       <c r="H46">
-        <v>1825.462954257763</v>
+        <v>3986294.482467879</v>
       </c>
       <c r="I46">
-        <v>1146.81167415176</v>
+        <v>1117165.340949652</v>
       </c>
       <c r="J46">
-        <v>-66.60628620503979</v>
+        <v>4841086.177882832</v>
       </c>
       <c r="K46">
-        <v>-1401.492008177788</v>
+        <v>3983406.971495052</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>22.88819253938534</v>
+        <v>1116399.576639561</v>
       </c>
       <c r="G47">
-        <v>492.0643766760138</v>
+        <v>4841749.541966947</v>
       </c>
       <c r="H47">
-        <v>1833.037482171299</v>
+        <v>3986302.470043631</v>
       </c>
       <c r="I47">
-        <v>1269.894966242083</v>
+        <v>1117251.705855285</v>
       </c>
       <c r="J47">
-        <v>-89.64250089525571</v>
+        <v>4841037.526258688</v>
       </c>
       <c r="K47">
-        <v>-1929.075422501844</v>
+        <v>3983044.226392104</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>22.59294547921071</v>
+        <v>1116399.061725991</v>
       </c>
       <c r="G48">
-        <v>507.4682984779424</v>
+        <v>4841766.054777603</v>
       </c>
       <c r="H48">
-        <v>1840.415555765871</v>
+        <v>3986310.250452181</v>
       </c>
       <c r="I48">
-        <v>1396.009071165576</v>
+        <v>1117340.197417265</v>
       </c>
       <c r="J48">
-        <v>-112.6787155854714</v>
+        <v>4840988.874634544</v>
       </c>
       <c r="K48">
-        <v>-2478.691340080522</v>
+        <v>3982666.332627458</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>22.30883470392593</v>
+        <v>1116398.566234204</v>
       </c>
       <c r="G49">
-        <v>522.872220279871</v>
+        <v>4841782.567588257</v>
       </c>
       <c r="H49">
-        <v>1847.60710849738</v>
+        <v>3986317.834168668</v>
       </c>
       <c r="I49">
-        <v>1525.228619899963</v>
+        <v>1117430.868002547</v>
       </c>
       <c r="J49">
-        <v>-135.7149302756873</v>
+        <v>4840940.2230104</v>
       </c>
       <c r="K49">
-        <v>-3050.339760913831</v>
+        <v>3982273.290201114</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>22.03517742908637</v>
+        <v>1116398.088973417</v>
       </c>
       <c r="G50">
-        <v>538.2761420817997</v>
+        <v>4841799.080398913</v>
       </c>
       <c r="H50">
-        <v>1854.621338954051</v>
+        <v>3986325.230893291</v>
       </c>
       <c r="I50">
-        <v>1657.630081142128</v>
+        <v>1117523.771267577</v>
       </c>
       <c r="J50">
-        <v>-158.7511449659032</v>
+        <v>4840891.571386254</v>
       </c>
       <c r="K50">
-        <v>-3644.020685001768</v>
+        <v>3981865.09911307</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>21.77134806566713</v>
+        <v>1116397.628852597</v>
       </c>
       <c r="G51">
-        <v>553.6800638837283</v>
+        <v>4841815.593209568</v>
       </c>
       <c r="H51">
-        <v>1861.466781601795</v>
+        <v>3986332.449625908</v>
       </c>
       <c r="I51">
-        <v>1793.291806560271</v>
+        <v>1117618.962190039</v>
       </c>
       <c r="J51">
-        <v>-181.7873596561192</v>
+        <v>4840842.91976211</v>
       </c>
       <c r="K51">
-        <v>-4259.734112344331</v>
+        <v>3981441.759363329</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>21.51677220495637</v>
+        <v>1116397.18486997</v>
       </c>
       <c r="G52">
-        <v>569.0839856856569</v>
+        <v>4841832.106020223</v>
       </c>
       <c r="H52">
-        <v>1868.151369215984</v>
+        <v>3986339.498731879</v>
       </c>
       <c r="I52">
-        <v>1932.294077160338</v>
+        <v>1117716.497101392</v>
       </c>
       <c r="J52">
-        <v>-204.8235743463351</v>
+        <v>4840794.268137966</v>
       </c>
       <c r="K52">
-        <v>-4897.480042941521</v>
+        <v>3981003.270951889</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>21.2709213588489</v>
+        <v>1116396.756103849</v>
       </c>
       <c r="G53">
-        <v>584.4879074875855</v>
+        <v>4841848.618830879</v>
       </c>
       <c r="H53">
-        <v>1874.682488145129</v>
+        <v>3986346.386000338</v>
       </c>
       <c r="I53">
-        <v>2074.719150794184</v>
+        <v>1117816.433720207</v>
       </c>
       <c r="J53">
-        <v>-227.8597890365508</v>
+        <v>4840745.616513821</v>
       </c>
       <c r="K53">
-        <v>-5557.258476793333</v>
+        <v>3980549.633878751</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2294,3741 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>21.03330834594462</v>
+        <v>1116396.341704584</v>
       </c>
       <c r="G54">
-        <v>599.8918292895141</v>
+        <v>4841865.131641534</v>
       </c>
       <c r="H54">
-        <v>1881.067027371945</v>
+        <v>3986353.118695934</v>
       </c>
       <c r="I54">
-        <v>2220.651310837602</v>
+        <v>1117918.83118632</v>
       </c>
       <c r="J54">
-        <v>-250.8960037267667</v>
+        <v>4840696.964889676</v>
       </c>
       <c r="K54">
-        <v>-6239.069413899777</v>
+        <v>3980080.848143914</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G55">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H55">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I55">
+        <v>1114859.87706516</v>
+      </c>
+      <c r="J55">
+        <v>4843223.389158728</v>
+      </c>
+      <c r="K55">
+        <v>3984363.695952778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G56">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H56">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I56">
+        <v>1114889.491022301</v>
+      </c>
+      <c r="J56">
+        <v>4843174.737569342</v>
+      </c>
+      <c r="K56">
+        <v>3984667.491439601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G57">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H57">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I57">
+        <v>1114919.834195893</v>
+      </c>
+      <c r="J57">
+        <v>4843126.085979955</v>
+      </c>
+      <c r="K57">
+        <v>3984956.138290904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G58">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H58">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I58">
+        <v>1114950.924542218</v>
+      </c>
+      <c r="J58">
+        <v>4843077.43439057</v>
+      </c>
+      <c r="K58">
+        <v>3985229.636506684</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G59">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H59">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I59">
+        <v>1114982.78045972</v>
+      </c>
+      <c r="J59">
+        <v>4843028.782801184</v>
+      </c>
+      <c r="K59">
+        <v>3985487.986086943</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G60">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H60">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I60">
+        <v>1115015.420799883</v>
+      </c>
+      <c r="J60">
+        <v>4842980.131211799</v>
+      </c>
+      <c r="K60">
+        <v>3985731.187031681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G61">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H61">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I61">
+        <v>1115048.864878394</v>
+      </c>
+      <c r="J61">
+        <v>4842931.479622412</v>
+      </c>
+      <c r="K61">
+        <v>3985959.239340897</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G62">
+        <v>4841121.873622279</v>
+      </c>
+      <c r="H62">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I62">
+        <v>1115083.13248657</v>
+      </c>
+      <c r="J62">
+        <v>4842882.828033026</v>
+      </c>
+      <c r="K62">
+        <v>3986172.143014591</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116579.166317611</v>
+      </c>
+      <c r="G63">
+        <v>4841138.386432315</v>
+      </c>
+      <c r="H63">
+        <v>3985229.393137361</v>
+      </c>
+      <c r="I63">
+        <v>1115118.243903073</v>
+      </c>
+      <c r="J63">
+        <v>4842834.17644364</v>
+      </c>
+      <c r="K63">
+        <v>3986369.898052764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116530.485724959</v>
+      </c>
+      <c r="G64">
+        <v>4841154.899242351</v>
+      </c>
+      <c r="H64">
+        <v>3985428.647597373</v>
+      </c>
+      <c r="I64">
+        <v>1115154.219905904</v>
+      </c>
+      <c r="J64">
+        <v>4842785.524854254</v>
+      </c>
+      <c r="K64">
+        <v>3986552.504455415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116501.888318858</v>
+      </c>
+      <c r="G65">
+        <v>4841171.412052387</v>
+      </c>
+      <c r="H65">
+        <v>3985547.333744016</v>
+      </c>
+      <c r="I65">
+        <v>1115191.081784708</v>
+      </c>
+      <c r="J65">
+        <v>4842736.873264868</v>
+      </c>
+      <c r="K65">
+        <v>3986719.962222545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116483.835538115</v>
+      </c>
+      <c r="G66">
+        <v>4841187.924862424</v>
+      </c>
+      <c r="H66">
+        <v>3985632.150711332</v>
+      </c>
+      <c r="I66">
+        <v>1115228.851353365</v>
+      </c>
+      <c r="J66">
+        <v>4842688.221675482</v>
+      </c>
+      <c r="K66">
+        <v>3986872.271354153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116471.245602106</v>
+      </c>
+      <c r="G67">
+        <v>4841204.43767246</v>
+      </c>
+      <c r="H67">
+        <v>3985698.19763834</v>
+      </c>
+      <c r="I67">
+        <v>1115267.550962903</v>
+      </c>
+      <c r="J67">
+        <v>4842639.570086096</v>
+      </c>
+      <c r="K67">
+        <v>3987009.43185024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>99</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116461.853132817</v>
+      </c>
+      <c r="G68">
+        <v>4841220.950482496</v>
+      </c>
+      <c r="H68">
+        <v>3985752.295194626</v>
+      </c>
+      <c r="I68">
+        <v>1115307.203514723</v>
+      </c>
+      <c r="J68">
+        <v>4842590.91849671</v>
+      </c>
+      <c r="K68">
+        <v>3987131.443710805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116454.509533453</v>
+      </c>
+      <c r="G69">
+        <v>4841237.463292531</v>
+      </c>
+      <c r="H69">
+        <v>3985798.11187587</v>
+      </c>
+      <c r="I69">
+        <v>1115347.832474152</v>
+      </c>
+      <c r="J69">
+        <v>4842542.266907324</v>
+      </c>
+      <c r="K69">
+        <v>3987238.306935849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116448.568026862</v>
+      </c>
+      <c r="G70">
+        <v>4841253.976102567</v>
+      </c>
+      <c r="H70">
+        <v>3985837.849502388</v>
+      </c>
+      <c r="I70">
+        <v>1115389.461884329</v>
+      </c>
+      <c r="J70">
+        <v>4842493.615317938</v>
+      </c>
+      <c r="K70">
+        <v>3987330.02152537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116443.634459314</v>
+      </c>
+      <c r="G71">
+        <v>4841270.488912604</v>
+      </c>
+      <c r="H71">
+        <v>3985872.933894419</v>
+      </c>
+      <c r="I71">
+        <v>1115432.116380433</v>
+      </c>
+      <c r="J71">
+        <v>4842444.963728553</v>
+      </c>
+      <c r="K71">
+        <v>3987406.587479371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116439.453632022</v>
+      </c>
+      <c r="G72">
+        <v>4841287.001722639</v>
+      </c>
+      <c r="H72">
+        <v>3985904.341485279</v>
+      </c>
+      <c r="I72">
+        <v>1115475.821204262</v>
+      </c>
+      <c r="J72">
+        <v>4842396.312139167</v>
+      </c>
+      <c r="K72">
+        <v>3987468.00479785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116435.852257194</v>
+      </c>
+      <c r="G73">
+        <v>4841303.514532676</v>
+      </c>
+      <c r="H73">
+        <v>3985932.77034324</v>
+      </c>
+      <c r="I73">
+        <v>1115520.60221917</v>
+      </c>
+      <c r="J73">
+        <v>4842347.66054978</v>
+      </c>
+      <c r="K73">
+        <v>3987514.273480807</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116432.708070879</v>
+      </c>
+      <c r="G74">
+        <v>4841320.027342713</v>
+      </c>
+      <c r="H74">
+        <v>3985958.736858919</v>
+      </c>
+      <c r="I74">
+        <v>1115566.485925373</v>
+      </c>
+      <c r="J74">
+        <v>4842299.008960394</v>
+      </c>
+      <c r="K74">
+        <v>3987545.393528244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116429.932051534</v>
+      </c>
+      <c r="G75">
+        <v>4841336.540152748</v>
+      </c>
+      <c r="H75">
+        <v>3985982.633787189</v>
+      </c>
+      <c r="I75">
+        <v>1115613.499475629</v>
+      </c>
+      <c r="J75">
+        <v>4842250.357371009</v>
+      </c>
+      <c r="K75">
+        <v>3987561.364940158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116427.457655231</v>
+      </c>
+      <c r="G76">
+        <v>4841353.052962785</v>
+      </c>
+      <c r="H76">
+        <v>3986004.76681493</v>
+      </c>
+      <c r="I76">
+        <v>1115661.670691308</v>
+      </c>
+      <c r="J76">
+        <v>4842201.705781623</v>
+      </c>
+      <c r="K76">
+        <v>3987562.187716551</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116425.234019374</v>
+      </c>
+      <c r="G77">
+        <v>4841369.565772821</v>
+      </c>
+      <c r="H77">
+        <v>3986025.378535149</v>
+      </c>
+      <c r="I77">
+        <v>1115711.028078856</v>
+      </c>
+      <c r="J77">
+        <v>4842153.054192237</v>
+      </c>
+      <c r="K77">
+        <v>3987547.861857421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116423.221516775</v>
+      </c>
+      <c r="G78">
+        <v>4841386.078582857</v>
+      </c>
+      <c r="H78">
+        <v>3986044.664698309</v>
+      </c>
+      <c r="I78">
+        <v>1115761.600846665</v>
+      </c>
+      <c r="J78">
+        <v>4842104.40260285</v>
+      </c>
+      <c r="K78">
+        <v>3987518.387362771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116421.38875738</v>
+      </c>
+      <c r="G79">
+        <v>4841402.591392893</v>
+      </c>
+      <c r="H79">
+        <v>3986062.785546328</v>
+      </c>
+      <c r="I79">
+        <v>1115813.418922354</v>
+      </c>
+      <c r="J79">
+        <v>4842055.751013464</v>
+      </c>
+      <c r="K79">
+        <v>3987473.764232599</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116419.71051226</v>
+      </c>
+      <c r="G80">
+        <v>4841419.104202929</v>
+      </c>
+      <c r="H80">
+        <v>3986079.873913272</v>
+      </c>
+      <c r="I80">
+        <v>1115866.512970487</v>
+      </c>
+      <c r="J80">
+        <v>4842007.099424078</v>
+      </c>
+      <c r="K80">
+        <v>3987413.992466906</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116418.166242633</v>
+      </c>
+      <c r="G81">
+        <v>4841435.617012965</v>
+      </c>
+      <c r="H81">
+        <v>3986096.041140113</v>
+      </c>
+      <c r="I81">
+        <v>1115920.914410708</v>
+      </c>
+      <c r="J81">
+        <v>4841958.447834692</v>
+      </c>
+      <c r="K81">
+        <v>3987339.072065691</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116416.739036187</v>
+      </c>
+      <c r="G82">
+        <v>4841452.129823001</v>
+      </c>
+      <c r="H82">
+        <v>3986111.381475289</v>
+      </c>
+      <c r="I82">
+        <v>1115976.655436347</v>
+      </c>
+      <c r="J82">
+        <v>4841909.796245307</v>
+      </c>
+      <c r="K82">
+        <v>3987249.003028954</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116415.414823897</v>
+      </c>
+      <c r="G83">
+        <v>4841468.642633037</v>
+      </c>
+      <c r="H83">
+        <v>3986125.975403665</v>
+      </c>
+      <c r="I83">
+        <v>1116033.769033462</v>
+      </c>
+      <c r="J83">
+        <v>4841861.144655921</v>
+      </c>
+      <c r="K83">
+        <v>3987143.785356696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116414.181793972</v>
+      </c>
+      <c r="G84">
+        <v>4841485.155443073</v>
+      </c>
+      <c r="H84">
+        <v>3986139.892202538</v>
+      </c>
+      <c r="I84">
+        <v>1116092.289000361</v>
+      </c>
+      <c r="J84">
+        <v>4841812.493066534</v>
+      </c>
+      <c r="K84">
+        <v>3987023.419048917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116413.029946896</v>
+      </c>
+      <c r="G85">
+        <v>4841501.66825311</v>
+      </c>
+      <c r="H85">
+        <v>3986153.191930546</v>
+      </c>
+      <c r="I85">
+        <v>1116152.249967608</v>
+      </c>
+      <c r="J85">
+        <v>4841763.841477148</v>
+      </c>
+      <c r="K85">
+        <v>3986887.904105615</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116411.950753116</v>
+      </c>
+      <c r="G86">
+        <v>4841518.181063145</v>
+      </c>
+      <c r="H86">
+        <v>3986165.926994052</v>
+      </c>
+      <c r="I86">
+        <v>1116213.687418511</v>
+      </c>
+      <c r="J86">
+        <v>4841715.189887763</v>
+      </c>
+      <c r="K86">
+        <v>3986737.240526793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116410.936886544</v>
+      </c>
+      <c r="G87">
+        <v>4841534.693873182</v>
+      </c>
+      <c r="H87">
+        <v>3986178.143394357</v>
+      </c>
+      <c r="I87">
+        <v>1116276.637710121</v>
+      </c>
+      <c r="J87">
+        <v>4841666.538298377</v>
+      </c>
+      <c r="K87">
+        <v>3986571.428312448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>99</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116409.982014787</v>
+      </c>
+      <c r="G88">
+        <v>4841551.206683218</v>
+      </c>
+      <c r="H88">
+        <v>3986189.881730736</v>
+      </c>
+      <c r="I88">
+        <v>1116341.138094748</v>
+      </c>
+      <c r="J88">
+        <v>4841617.886708991</v>
+      </c>
+      <c r="K88">
+        <v>3986390.467462583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116409.080632393</v>
+      </c>
+      <c r="G89">
+        <v>4841567.719493254</v>
+      </c>
+      <c r="H89">
+        <v>3986201.178014495</v>
+      </c>
+      <c r="I89">
+        <v>1116407.226742008</v>
+      </c>
+      <c r="J89">
+        <v>4841569.235119605</v>
+      </c>
+      <c r="K89">
+        <v>3986194.357977195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116408.227927052</v>
+      </c>
+      <c r="G90">
+        <v>4841584.232303291</v>
+      </c>
+      <c r="H90">
+        <v>3986212.064335242</v>
+      </c>
+      <c r="I90">
+        <v>1116474.942761405</v>
+      </c>
+      <c r="J90">
+        <v>4841520.583530219</v>
+      </c>
+      <c r="K90">
+        <v>3985983.099856286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116407.419671324</v>
+      </c>
+      <c r="G91">
+        <v>4841600.745113326</v>
+      </c>
+      <c r="H91">
+        <v>3986222.56941044</v>
+      </c>
+      <c r="I91">
+        <v>1116544.326225483</v>
+      </c>
+      <c r="J91">
+        <v>4841471.931940833</v>
+      </c>
+      <c r="K91">
+        <v>3985756.693099856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116406.652134349</v>
+      </c>
+      <c r="G92">
+        <v>4841617.257923363</v>
+      </c>
+      <c r="H92">
+        <v>3986232.719041939</v>
+      </c>
+      <c r="I92">
+        <v>1116615.418193533</v>
+      </c>
+      <c r="J92">
+        <v>4841423.280351447</v>
+      </c>
+      <c r="K92">
+        <v>3985515.137707904</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116405.922009304</v>
+      </c>
+      <c r="G93">
+        <v>4841633.770733398</v>
+      </c>
+      <c r="H93">
+        <v>3986242.536497779</v>
+      </c>
+      <c r="I93">
+        <v>1116688.260735892</v>
+      </c>
+      <c r="J93">
+        <v>4841374.628762061</v>
+      </c>
+      <c r="K93">
+        <v>3985258.433680431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116405.226353405</v>
+      </c>
+      <c r="G94">
+        <v>4841650.283543434</v>
+      </c>
+      <c r="H94">
+        <v>3986252.042833472</v>
+      </c>
+      <c r="I94">
+        <v>1116762.896958842</v>
+      </c>
+      <c r="J94">
+        <v>4841325.977172675</v>
+      </c>
+      <c r="K94">
+        <v>3984986.581017435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116404.562537965</v>
+      </c>
+      <c r="G95">
+        <v>4841666.796353471</v>
+      </c>
+      <c r="H95">
+        <v>3986261.257163916</v>
+      </c>
+      <c r="I95">
+        <v>1116839.371030119</v>
+      </c>
+      <c r="J95">
+        <v>4841277.325583289</v>
+      </c>
+      <c r="K95">
+        <v>3984699.579718918</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116403.928206578</v>
+      </c>
+      <c r="G96">
+        <v>4841683.309163507</v>
+      </c>
+      <c r="H96">
+        <v>3986270.196894788</v>
+      </c>
+      <c r="I96">
+        <v>1116917.728205047</v>
+      </c>
+      <c r="J96">
+        <v>4841228.673993902</v>
+      </c>
+      <c r="K96">
+        <v>3984397.42978488</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116403.321239907</v>
+      </c>
+      <c r="G97">
+        <v>4841699.821973543</v>
+      </c>
+      <c r="H97">
+        <v>3986278.877920438</v>
+      </c>
+      <c r="I97">
+        <v>1116998.014853319</v>
+      </c>
+      <c r="J97">
+        <v>4841180.022404517</v>
+      </c>
+      <c r="K97">
+        <v>3984080.13121532</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116402.739725884</v>
+      </c>
+      <c r="G98">
+        <v>4841716.334783579</v>
+      </c>
+      <c r="H98">
+        <v>3986287.314793949</v>
+      </c>
+      <c r="I98">
+        <v>1117080.278486443</v>
+      </c>
+      <c r="J98">
+        <v>4841131.370815131</v>
+      </c>
+      <c r="K98">
+        <v>3983747.684010239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116402.18193436</v>
+      </c>
+      <c r="G99">
+        <v>4841732.847593615</v>
+      </c>
+      <c r="H99">
+        <v>3986295.52087393</v>
+      </c>
+      <c r="I99">
+        <v>1117164.567785851</v>
+      </c>
+      <c r="J99">
+        <v>4841082.719225745</v>
+      </c>
+      <c r="K99">
+        <v>3983400.088169636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116401.646295445</v>
+      </c>
+      <c r="G100">
+        <v>4841749.360403651</v>
+      </c>
+      <c r="H100">
+        <v>3986303.508451764</v>
+      </c>
+      <c r="I100">
+        <v>1117250.932631712</v>
+      </c>
+      <c r="J100">
+        <v>4841034.067636359</v>
+      </c>
+      <c r="K100">
+        <v>3983037.343693512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116401.131380921</v>
+      </c>
+      <c r="G101">
+        <v>4841765.873213688</v>
+      </c>
+      <c r="H101">
+        <v>3986311.288862341</v>
+      </c>
+      <c r="I101">
+        <v>1117339.424132449</v>
+      </c>
+      <c r="J101">
+        <v>4840985.416046973</v>
+      </c>
+      <c r="K101">
+        <v>3982659.450581866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116400.635888215</v>
+      </c>
+      <c r="G102">
+        <v>4841782.386023724</v>
+      </c>
+      <c r="H102">
+        <v>3986318.872580803</v>
+      </c>
+      <c r="I102">
+        <v>1117430.094654981</v>
+      </c>
+      <c r="J102">
+        <v>4840936.764457587</v>
+      </c>
+      <c r="K102">
+        <v>3982266.408834699</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116400.158626543</v>
+      </c>
+      <c r="G103">
+        <v>4841798.89883376</v>
+      </c>
+      <c r="H103">
+        <v>3986326.269307352</v>
+      </c>
+      <c r="I103">
+        <v>1117522.997855715</v>
+      </c>
+      <c r="J103">
+        <v>4840888.112868201</v>
+      </c>
+      <c r="K103">
+        <v>3981858.218452009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116399.69850487</v>
+      </c>
+      <c r="G104">
+        <v>4841815.411643797</v>
+      </c>
+      <c r="H104">
+        <v>3986333.48804185</v>
+      </c>
+      <c r="I104">
+        <v>1117618.188712297</v>
+      </c>
+      <c r="J104">
+        <v>4840839.461278815</v>
+      </c>
+      <c r="K104">
+        <v>3981434.879433799</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116399.25452142</v>
+      </c>
+      <c r="G105">
+        <v>4841831.924453832</v>
+      </c>
+      <c r="H105">
+        <v>3986340.537149657</v>
+      </c>
+      <c r="I105">
+        <v>1117715.723556148</v>
+      </c>
+      <c r="J105">
+        <v>4840790.80968943</v>
+      </c>
+      <c r="K105">
+        <v>3980996.391780067</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116398.825754504</v>
+      </c>
+      <c r="G106">
+        <v>4841848.437263868</v>
+      </c>
+      <c r="H106">
+        <v>3986347.424419911</v>
+      </c>
+      <c r="I106">
+        <v>1117815.660105799</v>
+      </c>
+      <c r="J106">
+        <v>4840742.158100043</v>
+      </c>
+      <c r="K106">
+        <v>3980542.755490813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116398.411354471</v>
+      </c>
+      <c r="G107">
+        <v>4841864.950073904</v>
+      </c>
+      <c r="H107">
+        <v>3986354.15711726</v>
+      </c>
+      <c r="I107">
+        <v>1117918.057501046</v>
+      </c>
+      <c r="J107">
+        <v>4840693.506510657</v>
+      </c>
+      <c r="K107">
+        <v>3980073.970566038</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G108">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H108">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I108">
+        <v>1114861.107919084</v>
+      </c>
+      <c r="J108">
+        <v>4843227.680922733</v>
+      </c>
+      <c r="K108">
+        <v>3984368.134780563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G109">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H109">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I109">
+        <v>1114890.72190892</v>
+      </c>
+      <c r="J109">
+        <v>4843179.029290235</v>
+      </c>
+      <c r="K109">
+        <v>3984671.930605833</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G110">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H110">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I110">
+        <v>1114921.065116011</v>
+      </c>
+      <c r="J110">
+        <v>4843130.377657737</v>
+      </c>
+      <c r="K110">
+        <v>3984960.577778706</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G111">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H111">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I111">
+        <v>1114952.155496662</v>
+      </c>
+      <c r="J111">
+        <v>4843081.726025239</v>
+      </c>
+      <c r="K111">
+        <v>3985234.07629918</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G112">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H112">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I112">
+        <v>1114984.011449334</v>
+      </c>
+      <c r="J112">
+        <v>4843033.074392741</v>
+      </c>
+      <c r="K112">
+        <v>3985492.426167257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G113">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H113">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I113">
+        <v>1115016.651825534</v>
+      </c>
+      <c r="J113">
+        <v>4842984.422760243</v>
+      </c>
+      <c r="K113">
+        <v>3985735.627382936</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G114">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H114">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I114">
+        <v>1115050.095940968</v>
+      </c>
+      <c r="J114">
+        <v>4842935.771127745</v>
+      </c>
+      <c r="K114">
+        <v>3985963.679946216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G115">
+        <v>4841117.954309929</v>
+      </c>
+      <c r="H115">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I115">
+        <v>1115084.363586978</v>
+      </c>
+      <c r="J115">
+        <v>4842887.119495247</v>
+      </c>
+      <c r="K115">
+        <v>3986176.583857098</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116576.492373323</v>
+      </c>
+      <c r="G116">
+        <v>4841134.467106597</v>
+      </c>
+      <c r="H116">
+        <v>3985229.602923835</v>
+      </c>
+      <c r="I116">
+        <v>1115119.475042244</v>
+      </c>
+      <c r="J116">
+        <v>4842838.467862749</v>
+      </c>
+      <c r="K116">
+        <v>3986374.339115582</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>99</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116527.811897249</v>
+      </c>
+      <c r="G117">
+        <v>4841150.979903264</v>
+      </c>
+      <c r="H117">
+        <v>3985428.857394336</v>
+      </c>
+      <c r="I117">
+        <v>1115155.451084795</v>
+      </c>
+      <c r="J117">
+        <v>4842789.816230251</v>
+      </c>
+      <c r="K117">
+        <v>3986556.945721669</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>99</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116499.214559632</v>
+      </c>
+      <c r="G118">
+        <v>4841167.492699932</v>
+      </c>
+      <c r="H118">
+        <v>3985547.543547227</v>
+      </c>
+      <c r="I118">
+        <v>1115192.313004296</v>
+      </c>
+      <c r="J118">
+        <v>4842741.164597753</v>
+      </c>
+      <c r="K118">
+        <v>3986724.403675357</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>99</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116481.161822122</v>
+      </c>
+      <c r="G119">
+        <v>4841184.0054966</v>
+      </c>
+      <c r="H119">
+        <v>3985632.360519007</v>
+      </c>
+      <c r="I119">
+        <v>1115230.082614653</v>
+      </c>
+      <c r="J119">
+        <v>4842692.512965254</v>
+      </c>
+      <c r="K119">
+        <v>3986876.712976647</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116468.571916262</v>
+      </c>
+      <c r="G120">
+        <v>4841200.518293267</v>
+      </c>
+      <c r="H120">
+        <v>3985698.407449491</v>
+      </c>
+      <c r="I120">
+        <v>1115268.782266916</v>
+      </c>
+      <c r="J120">
+        <v>4842643.861332756</v>
+      </c>
+      <c r="K120">
+        <v>3987013.873625538</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>99</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116459.179469466</v>
+      </c>
+      <c r="G121">
+        <v>4841217.031089935</v>
+      </c>
+      <c r="H121">
+        <v>3985752.505008626</v>
+      </c>
+      <c r="I121">
+        <v>1115308.434862514</v>
+      </c>
+      <c r="J121">
+        <v>4842595.209700259</v>
+      </c>
+      <c r="K121">
+        <v>3987135.885622032</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>99</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116451.835887688</v>
+      </c>
+      <c r="G122">
+        <v>4841233.543886602</v>
+      </c>
+      <c r="H122">
+        <v>3985798.321692282</v>
+      </c>
+      <c r="I122">
+        <v>1115349.0638668</v>
+      </c>
+      <c r="J122">
+        <v>4842546.55806776</v>
+      </c>
+      <c r="K122">
+        <v>3987242.748966129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>99</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116445.894395326</v>
+      </c>
+      <c r="G123">
+        <v>4841250.056683269</v>
+      </c>
+      <c r="H123">
+        <v>3985838.059320892</v>
+      </c>
+      <c r="I123">
+        <v>1115390.693322937</v>
+      </c>
+      <c r="J123">
+        <v>4842497.906435262</v>
+      </c>
+      <c r="K123">
+        <v>3987334.463657826</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>99</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116440.960839593</v>
+      </c>
+      <c r="G124">
+        <v>4841266.569479938</v>
+      </c>
+      <c r="H124">
+        <v>3985873.143714769</v>
+      </c>
+      <c r="I124">
+        <v>1115433.347866134</v>
+      </c>
+      <c r="J124">
+        <v>4842449.254802765</v>
+      </c>
+      <c r="K124">
+        <v>3987411.029697126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>99</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116436.780022314</v>
+      </c>
+      <c r="G125">
+        <v>4841283.082276604</v>
+      </c>
+      <c r="H125">
+        <v>3985904.551307282</v>
+      </c>
+      <c r="I125">
+        <v>1115477.052738215</v>
+      </c>
+      <c r="J125">
+        <v>4842400.603170267</v>
+      </c>
+      <c r="K125">
+        <v>3987472.447084027</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>99</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116433.178656109</v>
+      </c>
+      <c r="G126">
+        <v>4841299.595073272</v>
+      </c>
+      <c r="H126">
+        <v>3985932.98016674</v>
+      </c>
+      <c r="I126">
+        <v>1115521.833802563</v>
+      </c>
+      <c r="J126">
+        <v>4842351.951537768</v>
+      </c>
+      <c r="K126">
+        <v>3987518.715818531</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>99</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116430.034477324</v>
+      </c>
+      <c r="G127">
+        <v>4841316.10786994</v>
+      </c>
+      <c r="H127">
+        <v>3985958.946683786</v>
+      </c>
+      <c r="I127">
+        <v>1115567.717559424</v>
+      </c>
+      <c r="J127">
+        <v>4842303.29990527</v>
+      </c>
+      <c r="K127">
+        <v>3987549.835900636</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116427.258464627</v>
+      </c>
+      <c r="G128">
+        <v>4841332.620666607</v>
+      </c>
+      <c r="H128">
+        <v>3985982.843613314</v>
+      </c>
+      <c r="I128">
+        <v>1115614.731161584</v>
+      </c>
+      <c r="J128">
+        <v>4842254.648272773</v>
+      </c>
+      <c r="K128">
+        <v>3987565.807330344</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>99</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116424.78407425</v>
+      </c>
+      <c r="G129">
+        <v>4841349.133463275</v>
+      </c>
+      <c r="H129">
+        <v>3986004.97664222</v>
+      </c>
+      <c r="I129">
+        <v>1115662.902430446</v>
+      </c>
+      <c r="J129">
+        <v>4842205.996640275</v>
+      </c>
+      <c r="K129">
+        <v>3987566.630107653</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>99</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116422.560443718</v>
+      </c>
+      <c r="G130">
+        <v>4841365.646259943</v>
+      </c>
+      <c r="H130">
+        <v>3986025.588363524</v>
+      </c>
+      <c r="I130">
+        <v>1115712.259872487</v>
+      </c>
+      <c r="J130">
+        <v>4842157.345007776</v>
+      </c>
+      <c r="K130">
+        <v>3987552.304232564</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>99</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116420.547945938</v>
+      </c>
+      <c r="G131">
+        <v>4841382.159056609</v>
+      </c>
+      <c r="H131">
+        <v>3986044.8745277</v>
+      </c>
+      <c r="I131">
+        <v>1115762.83269613</v>
+      </c>
+      <c r="J131">
+        <v>4842108.693375279</v>
+      </c>
+      <c r="K131">
+        <v>3987522.829705078</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>99</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116418.715190933</v>
+      </c>
+      <c r="G132">
+        <v>4841398.671853278</v>
+      </c>
+      <c r="H132">
+        <v>3986062.995376672</v>
+      </c>
+      <c r="I132">
+        <v>1115814.65082903</v>
+      </c>
+      <c r="J132">
+        <v>4842060.041742781</v>
+      </c>
+      <c r="K132">
+        <v>3987478.206525193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>99</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116417.036949832</v>
+      </c>
+      <c r="G133">
+        <v>4841415.184649944</v>
+      </c>
+      <c r="H133">
+        <v>3986080.083744515</v>
+      </c>
+      <c r="I133">
+        <v>1115867.74493578</v>
+      </c>
+      <c r="J133">
+        <v>4842011.390110282</v>
+      </c>
+      <c r="K133">
+        <v>3987418.43469291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>99</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116415.492683902</v>
+      </c>
+      <c r="G134">
+        <v>4841431.697446613</v>
+      </c>
+      <c r="H134">
+        <v>3986096.250972207</v>
+      </c>
+      <c r="I134">
+        <v>1115922.146436064</v>
+      </c>
+      <c r="J134">
+        <v>4841962.738477784</v>
+      </c>
+      <c r="K134">
+        <v>3987343.514208229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>99</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116414.065480874</v>
+      </c>
+      <c r="G135">
+        <v>4841448.21024328</v>
+      </c>
+      <c r="H135">
+        <v>3986111.591308191</v>
+      </c>
+      <c r="I135">
+        <v>1115977.887523243</v>
+      </c>
+      <c r="J135">
+        <v>4841914.086845287</v>
+      </c>
+      <c r="K135">
+        <v>3987253.44507115</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>99</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116412.741271755</v>
+      </c>
+      <c r="G136">
+        <v>4841464.723039947</v>
+      </c>
+      <c r="H136">
+        <v>3986126.185237335</v>
+      </c>
+      <c r="I136">
+        <v>1116035.001183413</v>
+      </c>
+      <c r="J136">
+        <v>4841865.435212789</v>
+      </c>
+      <c r="K136">
+        <v>3987148.227281673</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>99</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116411.508244783</v>
+      </c>
+      <c r="G137">
+        <v>4841481.235836616</v>
+      </c>
+      <c r="H137">
+        <v>3986140.102036941</v>
+      </c>
+      <c r="I137">
+        <v>1116093.521214921</v>
+      </c>
+      <c r="J137">
+        <v>4841816.78358029</v>
+      </c>
+      <c r="K137">
+        <v>3987027.860839798</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>99</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116410.356400466</v>
+      </c>
+      <c r="G138">
+        <v>4841497.748633283</v>
+      </c>
+      <c r="H138">
+        <v>3986153.40176565</v>
+      </c>
+      <c r="I138">
+        <v>1116153.482248368</v>
+      </c>
+      <c r="J138">
+        <v>4841768.131947793</v>
+      </c>
+      <c r="K138">
+        <v>3986892.345745525</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>99</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116409.27720927</v>
+      </c>
+      <c r="G139">
+        <v>4841514.261429951</v>
+      </c>
+      <c r="H139">
+        <v>3986166.136829825</v>
+      </c>
+      <c r="I139">
+        <v>1116214.9197671</v>
+      </c>
+      <c r="J139">
+        <v>4841719.480315295</v>
+      </c>
+      <c r="K139">
+        <v>3986741.681998853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>99</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116408.263345126</v>
+      </c>
+      <c r="G140">
+        <v>4841530.774226618</v>
+      </c>
+      <c r="H140">
+        <v>3986178.353230774</v>
+      </c>
+      <c r="I140">
+        <v>1116277.87012821</v>
+      </c>
+      <c r="J140">
+        <v>4841670.828682797</v>
+      </c>
+      <c r="K140">
+        <v>3986575.869599784</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>99</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116407.308475656</v>
+      </c>
+      <c r="G141">
+        <v>4841547.287023285</v>
+      </c>
+      <c r="H141">
+        <v>3986190.091567771</v>
+      </c>
+      <c r="I141">
+        <v>1116342.370584048</v>
+      </c>
+      <c r="J141">
+        <v>4841622.177050298</v>
+      </c>
+      <c r="K141">
+        <v>3986394.908548316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>99</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116406.407095421</v>
+      </c>
+      <c r="G142">
+        <v>4841563.799819953</v>
+      </c>
+      <c r="H142">
+        <v>3986201.387852124</v>
+      </c>
+      <c r="I142">
+        <v>1116408.459304273</v>
+      </c>
+      <c r="J142">
+        <v>4841573.525417801</v>
+      </c>
+      <c r="K142">
+        <v>3986198.798844451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>99</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116405.554392121</v>
+      </c>
+      <c r="G143">
+        <v>4841580.312616621</v>
+      </c>
+      <c r="H143">
+        <v>3986212.274173445</v>
+      </c>
+      <c r="I143">
+        <v>1116476.175398432</v>
+      </c>
+      <c r="J143">
+        <v>4841524.873785303</v>
+      </c>
+      <c r="K143">
+        <v>3985987.540488188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>99</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116404.746138329</v>
+      </c>
+      <c r="G144">
+        <v>4841596.825413288</v>
+      </c>
+      <c r="H144">
+        <v>3986222.779249195</v>
+      </c>
+      <c r="I144">
+        <v>1116545.558939112</v>
+      </c>
+      <c r="J144">
+        <v>4841476.222152805</v>
+      </c>
+      <c r="K144">
+        <v>3985761.133479526</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>99</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116403.978603192</v>
+      </c>
+      <c r="G145">
+        <v>4841613.338209956</v>
+      </c>
+      <c r="H145">
+        <v>3986232.928881228</v>
+      </c>
+      <c r="I145">
+        <v>1116616.65098565</v>
+      </c>
+      <c r="J145">
+        <v>4841427.570520307</v>
+      </c>
+      <c r="K145">
+        <v>3985519.577818466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>99</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116403.248479896</v>
+      </c>
+      <c r="G146">
+        <v>4841629.851006623</v>
+      </c>
+      <c r="H146">
+        <v>3986242.746337586</v>
+      </c>
+      <c r="I146">
+        <v>1116689.49360843</v>
+      </c>
+      <c r="J146">
+        <v>4841378.918887809</v>
+      </c>
+      <c r="K146">
+        <v>3985262.873505009</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>99</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116402.552825662</v>
+      </c>
+      <c r="G147">
+        <v>4841646.363803291</v>
+      </c>
+      <c r="H147">
+        <v>3986252.252673778</v>
+      </c>
+      <c r="I147">
+        <v>1116764.129913783</v>
+      </c>
+      <c r="J147">
+        <v>4841330.267255311</v>
+      </c>
+      <c r="K147">
+        <v>3984991.020539153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>99</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116401.889011812</v>
+      </c>
+      <c r="G148">
+        <v>4841662.876599958</v>
+      </c>
+      <c r="H148">
+        <v>3986261.467004708</v>
+      </c>
+      <c r="I148">
+        <v>1116840.60406949</v>
+      </c>
+      <c r="J148">
+        <v>4841281.615622813</v>
+      </c>
+      <c r="K148">
+        <v>3984704.018920899</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>99</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116401.254681944</v>
+      </c>
+      <c r="G149">
+        <v>4841679.389396627</v>
+      </c>
+      <c r="H149">
+        <v>3986270.406736051</v>
+      </c>
+      <c r="I149">
+        <v>1116918.961330927</v>
+      </c>
+      <c r="J149">
+        <v>4841232.963990315</v>
+      </c>
+      <c r="K149">
+        <v>3984401.868650247</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>99</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116400.647716727</v>
+      </c>
+      <c r="G150">
+        <v>4841695.902193293</v>
+      </c>
+      <c r="H150">
+        <v>3986279.087762157</v>
+      </c>
+      <c r="I150">
+        <v>1116999.24806784</v>
+      </c>
+      <c r="J150">
+        <v>4841184.312357817</v>
+      </c>
+      <c r="K150">
+        <v>3984084.569727197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>99</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116400.066204096</v>
+      </c>
+      <c r="G151">
+        <v>4841712.414989961</v>
+      </c>
+      <c r="H151">
+        <v>3986287.524636112</v>
+      </c>
+      <c r="I151">
+        <v>1117081.511791786</v>
+      </c>
+      <c r="J151">
+        <v>4841135.660725319</v>
+      </c>
+      <c r="K151">
+        <v>3983752.122151749</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>99</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116399.508413908</v>
+      </c>
+      <c r="G152">
+        <v>4841728.927786628</v>
+      </c>
+      <c r="H152">
+        <v>3986295.730716526</v>
+      </c>
+      <c r="I152">
+        <v>1117165.801184254</v>
+      </c>
+      <c r="J152">
+        <v>4841087.009092821</v>
+      </c>
+      <c r="K152">
+        <v>3983404.525923903</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>99</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116398.972776276</v>
+      </c>
+      <c r="G153">
+        <v>4841745.440583296</v>
+      </c>
+      <c r="H153">
+        <v>3986303.718294779</v>
+      </c>
+      <c r="I153">
+        <v>1117252.166125466</v>
+      </c>
+      <c r="J153">
+        <v>4841038.357460323</v>
+      </c>
+      <c r="K153">
+        <v>3983041.781043659</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>99</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116398.457862985</v>
+      </c>
+      <c r="G154">
+        <v>4841761.953379964</v>
+      </c>
+      <c r="H154">
+        <v>3986311.498705766</v>
+      </c>
+      <c r="I154">
+        <v>1117340.657723901</v>
+      </c>
+      <c r="J154">
+        <v>4840989.705827825</v>
+      </c>
+      <c r="K154">
+        <v>3982663.887511016</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>99</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116397.962371465</v>
+      </c>
+      <c r="G155">
+        <v>4841778.466176631</v>
+      </c>
+      <c r="H155">
+        <v>3986319.082424628</v>
+      </c>
+      <c r="I155">
+        <v>1117431.328346537</v>
+      </c>
+      <c r="J155">
+        <v>4840941.054195328</v>
+      </c>
+      <c r="K155">
+        <v>3982270.845325976</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>99</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116397.485110936</v>
+      </c>
+      <c r="G156">
+        <v>4841794.978973299</v>
+      </c>
+      <c r="H156">
+        <v>3986326.479151567</v>
+      </c>
+      <c r="I156">
+        <v>1117524.231649839</v>
+      </c>
+      <c r="J156">
+        <v>4840892.402562829</v>
+      </c>
+      <c r="K156">
+        <v>3981862.654488537</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>99</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116397.024990365</v>
+      </c>
+      <c r="G157">
+        <v>4841811.491769967</v>
+      </c>
+      <c r="H157">
+        <v>3986333.697886444</v>
+      </c>
+      <c r="I157">
+        <v>1117619.422611517</v>
+      </c>
+      <c r="J157">
+        <v>4840843.750930331</v>
+      </c>
+      <c r="K157">
+        <v>3981439.314998701</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>99</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116396.581007979</v>
+      </c>
+      <c r="G158">
+        <v>4841828.004566634</v>
+      </c>
+      <c r="H158">
+        <v>3986340.746994622</v>
+      </c>
+      <c r="I158">
+        <v>1117716.957563051</v>
+      </c>
+      <c r="J158">
+        <v>4840795.099297833</v>
+      </c>
+      <c r="K158">
+        <v>3981000.826856466</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>99</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116396.15224209</v>
+      </c>
+      <c r="G159">
+        <v>4841844.517363301</v>
+      </c>
+      <c r="H159">
+        <v>3986347.634265238</v>
+      </c>
+      <c r="I159">
+        <v>1117816.894223036</v>
+      </c>
+      <c r="J159">
+        <v>4840746.447665336</v>
+      </c>
+      <c r="K159">
+        <v>3980547.190061834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>99</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116395.737843049</v>
+      </c>
+      <c r="G160">
+        <v>4841861.03015997</v>
+      </c>
+      <c r="H160">
+        <v>3986354.366962942</v>
+      </c>
+      <c r="I160">
+        <v>1117919.291731334</v>
+      </c>
+      <c r="J160">
+        <v>4840697.796032837</v>
+      </c>
+      <c r="K160">
+        <v>3980078.404614804</v>
       </c>
     </row>
   </sheetData>
